--- a/Input_data_With_dummyGrid_and_RT_pulp.xlsx
+++ b/Input_data_With_dummyGrid_and_RT_pulp.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Simple_extended\V8\Master_repo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Simple_extended\Deterministic\Deterministic_solution\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE35D3F4-1EA4-478C-984C-EF3E9D8BC619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13C8E00D-A969-4CC9-8F4E-3E3BA0CC8CC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="1000" firstSheet="14" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="1000" firstSheet="15" activeTab="26" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Par_AvailableExcessHeat" sheetId="8" r:id="rId1"/>
@@ -1601,7 +1601,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
@@ -4478,10 +4478,10 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2000-000000000000}">
-  <dimension ref="A3:A4"/>
+  <dimension ref="A3:A15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="W29" sqref="W29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4494,6 +4494,61 @@
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -6692,6 +6747,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="5caa653f-10d0-46a2-81cc-01cb3798075e">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="7269c6ca-e946-40a5-ac8b-c5ef060b09ff" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CEBC57C6511F094FB1659D4FD897CA2A" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e300c8dce90f4bd359ffe07958d068a6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5caa653f-10d0-46a2-81cc-01cb3798075e" xmlns:ns3="7269c6ca-e946-40a5-ac8b-c5ef060b09ff" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="947f29ac9f688054ae1e7aaca14544db" ns2:_="" ns3:_="">
     <xsd:import namespace="5caa653f-10d0-46a2-81cc-01cb3798075e"/>
@@ -6892,41 +6967,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="5caa653f-10d0-46a2-81cc-01cb3798075e">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="7269c6ca-e946-40a5-ac8b-c5ef060b09ff" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07060BB5-5F94-4742-B93F-B4D1C211ED2E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90557570-2947-467E-9F2E-D83CEC05A5B9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="5caa653f-10d0-46a2-81cc-01cb3798075e"/>
-    <ds:schemaRef ds:uri="7269c6ca-e946-40a5-ac8b-c5ef060b09ff"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6949,9 +6993,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90557570-2947-467E-9F2E-D83CEC05A5B9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07060BB5-5F94-4742-B93F-B4D1C211ED2E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="5caa653f-10d0-46a2-81cc-01cb3798075e"/>
+    <ds:schemaRef ds:uri="7269c6ca-e946-40a5-ac8b-c5ef060b09ff"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Input_data_With_dummyGrid_and_RT_pulp.xlsx
+++ b/Input_data_With_dummyGrid_and_RT_pulp.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Simple_extended\Deterministic\Deterministic_solution\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Simple_extended\deterministic\Deterministic_solution\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13C8E00D-A969-4CC9-8F4E-3E3BA0CC8CC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D34DE16-0A69-4834-8D3B-8423C22E4E1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="1000" firstSheet="15" activeTab="26" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="1000" firstSheet="26" activeTab="26" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Par_AvailableExcessHeat" sheetId="8" r:id="rId1"/>
@@ -4478,10 +4478,10 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2000-000000000000}">
-  <dimension ref="A3:A15"/>
+  <dimension ref="A3:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4494,61 +4494,6 @@
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -6747,26 +6692,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="5caa653f-10d0-46a2-81cc-01cb3798075e">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="7269c6ca-e946-40a5-ac8b-c5ef060b09ff" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CEBC57C6511F094FB1659D4FD897CA2A" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e300c8dce90f4bd359ffe07958d068a6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5caa653f-10d0-46a2-81cc-01cb3798075e" xmlns:ns3="7269c6ca-e946-40a5-ac8b-c5ef060b09ff" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="947f29ac9f688054ae1e7aaca14544db" ns2:_="" ns3:_="">
     <xsd:import namespace="5caa653f-10d0-46a2-81cc-01cb3798075e"/>
@@ -6967,10 +6892,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="5caa653f-10d0-46a2-81cc-01cb3798075e">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="7269c6ca-e946-40a5-ac8b-c5ef060b09ff" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90557570-2947-467E-9F2E-D83CEC05A5B9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07060BB5-5F94-4742-B93F-B4D1C211ED2E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="5caa653f-10d0-46a2-81cc-01cb3798075e"/>
+    <ds:schemaRef ds:uri="7269c6ca-e946-40a5-ac8b-c5ef060b09ff"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6993,20 +6949,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07060BB5-5F94-4742-B93F-B4D1C211ED2E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90557570-2947-467E-9F2E-D83CEC05A5B9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="5caa653f-10d0-46a2-81cc-01cb3798075e"/>
-    <ds:schemaRef ds:uri="7269c6ca-e946-40a5-ac8b-c5ef060b09ff"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Input_data_With_dummyGrid_and_RT_pulp.xlsx
+++ b/Input_data_With_dummyGrid_and_RT_pulp.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Simple_extended\deterministic\Deterministic_solution\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Simple_extended\Master_repo\Master_repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D34DE16-0A69-4834-8D3B-8423C22E4E1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB2C6111-3B9D-478A-BD2C-858BB2502C1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="1000" firstSheet="26" activeTab="26" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="1000" firstSheet="12" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Par_AvailableExcessHeat" sheetId="8" r:id="rId1"/>
@@ -123,7 +123,7 @@
     <author>tc={C5776892-1F20-4F03-80A7-219BD90F0AD8}</author>
   </authors>
   <commentList>
-    <comment ref="C37" authorId="0" shapeId="0" xr:uid="{C5776892-1F20-4F03-80A7-219BD90F0AD8}">
+    <comment ref="C41" authorId="0" shapeId="0" xr:uid="{C5776892-1F20-4F03-80A7-219BD90F0AD8}">
       <text>
         <r>
           <rPr>
@@ -177,7 +177,7 @@
     <author>tc={4AB2F2FD-D9AF-4EF6-975B-D27067AE3E61}</author>
   </authors>
   <commentList>
-    <comment ref="C37" authorId="0" shapeId="0" xr:uid="{4AB2F2FD-D9AF-4EF6-975B-D27067AE3E61}">
+    <comment ref="C41" authorId="0" shapeId="0" xr:uid="{4AB2F2FD-D9AF-4EF6-975B-D27067AE3E61}">
       <text>
         <r>
           <rPr>
@@ -226,7 +226,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="87">
   <si>
     <t>Benevning:</t>
   </si>
@@ -1599,10 +1599,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1655,13 +1655,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="B5" t="s">
         <v>28</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1669,13 +1669,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="B6" t="s">
         <v>28</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1683,13 +1683,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B7" t="s">
         <v>28</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -1697,13 +1697,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>72</v>
       </c>
       <c r="B8" t="s">
         <v>28</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1711,10 +1711,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -1725,13 +1725,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -1739,13 +1739,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="B11" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -1753,13 +1753,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -1767,13 +1767,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -1784,10 +1784,10 @@
         <v>61</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="C14">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -1798,10 +1798,10 @@
         <v>61</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="C15">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -1809,13 +1809,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="B16" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -1823,13 +1823,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="B17" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -1837,13 +1837,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C18">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -1851,13 +1851,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C19">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -1868,10 +1868,10 @@
         <v>78</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="C20">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -1882,10 +1882,10 @@
         <v>78</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="C21">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -1893,13 +1893,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="B22" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -1907,13 +1907,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="B23" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -1921,13 +1921,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C24">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -1935,13 +1935,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C25">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -1952,10 +1952,10 @@
         <v>62</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="C26">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -1966,10 +1966,10 @@
         <v>62</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="C27">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -1977,13 +1977,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="B28" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -1991,13 +1991,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="B29" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="C29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -2005,13 +2005,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C30">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -2019,13 +2019,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="B31" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C31">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -2036,10 +2036,10 @@
         <v>77</v>
       </c>
       <c r="B32" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="C32">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -2050,105 +2050,105 @@
         <v>77</v>
       </c>
       <c r="B33" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="C33">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D33">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>67</v>
+      <c r="A34" t="s">
+        <v>77</v>
       </c>
       <c r="B34" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D34">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>67</v>
+      <c r="A35" t="s">
+        <v>77</v>
       </c>
       <c r="B35" t="s">
         <v>30</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D35">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>2</v>
+      <c r="A36" t="s">
+        <v>77</v>
       </c>
       <c r="B36" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C36">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D36">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>2</v>
+      <c r="A37" t="s">
+        <v>77</v>
       </c>
       <c r="B37" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C37">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D37">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>6</v>
+      <c r="A38" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="B38" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>7</v>
+      <c r="A39" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="B39" t="s">
         <v>30</v>
       </c>
       <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>83</v>
-      </c>
       <c r="B40" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C40">
         <v>2</v>
@@ -2158,27 +2158,77 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="A41" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B41" t="s">
+        <v>28</v>
+      </c>
+      <c r="C41">
+        <v>4</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" t="s">
+        <v>31</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" t="s">
+        <v>30</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>83</v>
+      </c>
+      <c r="B44" t="s">
+        <v>29</v>
+      </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>86</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B45" t="s">
         <v>85</v>
       </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="3"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="3"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="3"/>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="3"/>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
@@ -2186,11 +2236,17 @@
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="3"/>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="3"/>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="3"/>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="3"/>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="3"/>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2203,7 +2259,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
   <dimension ref="A1:S78"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -3331,8 +3387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:M76"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4480,8 +4536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2000-000000000000}">
   <dimension ref="A3:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="W29" sqref="W29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4835,10 +4891,10 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2700-000000000000}">
-  <dimension ref="A3:C55"/>
+  <dimension ref="A3:C59"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4873,54 +4929,54 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="B5" t="s">
         <v>28</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="B6" t="s">
         <v>28</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B7" t="s">
         <v>28</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>72</v>
       </c>
       <c r="B8" t="s">
         <v>28</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -4928,46 +4984,46 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="B11" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -4975,10 +5031,10 @@
         <v>61</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="C14">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -4986,54 +5042,54 @@
         <v>61</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="C15">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="B16" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="B17" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C18">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C19">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -5041,10 +5097,10 @@
         <v>78</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="C20">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -5052,54 +5108,54 @@
         <v>78</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="C21">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="B22" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="B23" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C24">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C25">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -5107,10 +5163,10 @@
         <v>62</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="C26">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -5118,54 +5174,54 @@
         <v>62</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="C27">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="B28" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="B29" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="C29">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C30">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="B31" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C31">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -5173,10 +5229,10 @@
         <v>77</v>
       </c>
       <c r="B32" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="C32">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -5184,84 +5240,84 @@
         <v>77</v>
       </c>
       <c r="B33" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="C33">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>67</v>
+      <c r="A34" t="s">
+        <v>77</v>
       </c>
       <c r="B34" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>67</v>
+      <c r="A35" t="s">
+        <v>77</v>
       </c>
       <c r="B35" t="s">
         <v>30</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>2</v>
+      <c r="A36" t="s">
+        <v>77</v>
       </c>
       <c r="B36" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C36">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>2</v>
+      <c r="A37" t="s">
+        <v>77</v>
       </c>
       <c r="B37" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C37">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>6</v>
+      <c r="A38" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="B38" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C38">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>7</v>
+      <c r="A39" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="B39" t="s">
         <v>30</v>
       </c>
       <c r="C39">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>83</v>
+        <v>2</v>
       </c>
       <c r="B40" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C40">
         <v>2</v>
@@ -5269,23 +5325,61 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B41" t="s">
+        <v>28</v>
+      </c>
+      <c r="C41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" t="s">
+        <v>31</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" t="s">
+        <v>30</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B44" t="s">
+        <v>29</v>
+      </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B45" t="s">
         <v>85</v>
       </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="3"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="3"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="3"/>
+      <c r="C45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="3"/>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
@@ -5293,11 +5387,17 @@
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="3"/>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="3"/>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="3"/>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="3"/>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="3"/>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -5312,7 +5412,7 @@
   <dimension ref="A3:F78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6692,6 +6792,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="5caa653f-10d0-46a2-81cc-01cb3798075e">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="7269c6ca-e946-40a5-ac8b-c5ef060b09ff" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CEBC57C6511F094FB1659D4FD897CA2A" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e300c8dce90f4bd359ffe07958d068a6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5caa653f-10d0-46a2-81cc-01cb3798075e" xmlns:ns3="7269c6ca-e946-40a5-ac8b-c5ef060b09ff" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="947f29ac9f688054ae1e7aaca14544db" ns2:_="" ns3:_="">
     <xsd:import namespace="5caa653f-10d0-46a2-81cc-01cb3798075e"/>
@@ -6892,41 +7012,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="5caa653f-10d0-46a2-81cc-01cb3798075e">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="7269c6ca-e946-40a5-ac8b-c5ef060b09ff" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07060BB5-5F94-4742-B93F-B4D1C211ED2E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90557570-2947-467E-9F2E-D83CEC05A5B9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="5caa653f-10d0-46a2-81cc-01cb3798075e"/>
-    <ds:schemaRef ds:uri="7269c6ca-e946-40a5-ac8b-c5ef060b09ff"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6949,9 +7038,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90557570-2947-467E-9F2E-D83CEC05A5B9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07060BB5-5F94-4742-B93F-B4D1C211ED2E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="5caa653f-10d0-46a2-81cc-01cb3798075e"/>
+    <ds:schemaRef ds:uri="7269c6ca-e946-40a5-ac8b-c5ef060b09ff"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>